--- a/AnalystResponses.xlsx
+++ b/AnalystResponses.xlsx
@@ -313,11 +313,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,1100 +632,1130 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="J15" sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="64.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>350</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>200</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>250</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>250</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>200</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>250</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>300</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>300</v>
       </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>300</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>150</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>75</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
         <v>5</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>35</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>90</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
+      <c r="F27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2">
         <v>5</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="L27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>72</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>300</v>
       </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>300</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>250</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>3</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4</v>
+      </c>
+      <c r="J31" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>100</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>1500</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" t="s">
         <v>81</v>
